--- a/Marijuana_Legalization_Status_Fraction_Of_Year_Legalized.xlsx
+++ b/Marijuana_Legalization_Status_Fraction_Of_Year_Legalized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse's PC\Documents\UW MPA\Y2 Q1\529\529_DD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D75CB-A205-452E-B8E5-2292F15794A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F98BE0-8D1F-42AD-9FAE-664320FF3330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E7D73D33-65BC-48E4-83C1-61B8CF6FB1D1}"/>
   </bookViews>
@@ -553,47 +553,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2E9A60-D8A1-4D60-8431-7F12FF08D4A0}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="1"/>
-    <col min="2" max="9" width="17.1328125" style="3" customWidth="1"/>
+    <col min="2" max="10" width="17.1328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="2">
         <v>2010</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2011</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2012</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2013</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2014</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2015</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2016</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -618,8 +621,11 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -644,8 +650,11 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -670,8 +679,11 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -694,11 +706,14 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <f>1-(YEARFRAC("1-Jan-2016", "9-Nov-2016"))</f>
         <v>0.14444444444444449</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -709,12 +724,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <f>1-(YEARFRAC("1-Jan-2012", "10-Dec-2012"))</f>
         <v>5.8333333333333348E-2</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
@@ -724,8 +739,11 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -750,8 +768,11 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -776,8 +797,11 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -797,14 +821,17 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <f>1-(YEARFRAC("1-Jan-2015", "26-Feb-2015"))</f>
         <v>0.84722222222222221</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -829,8 +856,11 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -855,8 +885,11 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -881,8 +914,11 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -907,8 +943,11 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -933,8 +972,11 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -959,8 +1001,11 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1030,11 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1011,8 +1059,11 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1037,8 +1088,11 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1063,8 +1117,11 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1089,8 +1146,11 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1113,11 +1173,14 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <f>1-(YEARFRAC("1-Jan-2016", "15-Dec-2016"))</f>
         <v>4.4444444444444398E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1142,8 +1205,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1168,8 +1234,11 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1194,8 +1263,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1220,8 +1292,11 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1246,8 +1321,11 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1272,8 +1350,11 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1298,8 +1379,11 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1324,8 +1408,11 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1350,8 +1437,11 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1376,8 +1466,11 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1402,8 +1495,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1428,8 +1524,11 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1454,8 +1553,11 @@
       <c r="H34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1480,8 +1582,11 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1506,8 +1611,11 @@
       <c r="H36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1527,14 +1635,17 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <f>1-(YEARFRAC("1-Jan-2015", "1-Jul-2015"))</f>
         <v>0.5</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1559,8 +1670,11 @@
       <c r="H38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1585,8 +1699,11 @@
       <c r="H39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1611,8 +1728,11 @@
       <c r="H40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1637,8 +1757,11 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1663,8 +1786,11 @@
       <c r="H42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1689,8 +1815,11 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1715,8 +1844,11 @@
       <c r="H44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1741,8 +1873,11 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1767,8 +1902,11 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1779,12 +1917,12 @@
         <v>0</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <f>1-(YEARFRAC("1-Jan-2012", "6-Dec-2012"))</f>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
       <c r="F47" s="3">
         <v>1</v>
       </c>
@@ -1794,8 +1932,11 @@
       <c r="H47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1820,8 +1961,11 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1846,8 +1990,11 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1872,8 +2019,11 @@
       <c r="H50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1893,14 +2043,17 @@
         <v>0</v>
       </c>
       <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
         <f>1-(YEARFRAC("1-Jan-2015", "24-Feb-2015"))</f>
         <v>0.85277777777777775</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1923,6 +2076,9 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>0</v>
       </c>
     </row>
